--- a/datos/femicidios_2019.xlsx
+++ b/datos/femicidios_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG66"/>
+  <dimension ref="A1:AJ66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,6 +523,21 @@
           <t>informacion_medios_2</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>informacion_medios_3</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>informe_poder_judicial</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>ultima_fecha_de_modificacion</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -663,6 +678,11 @@
           <t>https://www.eldesconcierto.cl/2019/01/01/primer-femicidio-de-2019-mujer-fue-asesinada-por-su-pareja-en-puerto-montt/</t>
         </is>
       </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -765,7 +785,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -796,6 +816,11 @@
       <c r="AG3" t="inlineStr">
         <is>
           <t>https://musicaynoticias.cl/rancagua/26926-20-anos-de-carcel-para-autor-de-femicidio-en-bosques-de-san-francisco-en-rancagua</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
         </is>
       </c>
     </row>
@@ -860,7 +885,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Víctor Enrique Arancibia Montenegro,</t>
+          <t>Víctor Enrique Arancibia Montenegro</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -931,6 +956,11 @@
       <c r="AG4" t="inlineStr">
         <is>
           <t>http://www.elandino.cl/2019/01/06/femicidio-y-suicidio-descubiertos-la-tarde-del-sabado-estremecen-a-la-villa-primavera-de-los-andes/</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1065,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1066,6 +1096,11 @@
       <c r="AG5" t="inlineStr">
         <is>
           <t>https://www.biobiochile.cl/noticias/nacional/region-del-maule/2019/02/06/detienen-a-cuatro-jovenes-por-su-presunta-participacion-en-el-asesinato-de-aylin-fuentes-en-talca.shtml</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>ç</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1340,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1323,6 +1358,11 @@
           <t>Tribunal de Juicio Oral en lo Penal de Osorno</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>983-2019</t>
+        </is>
+      </c>
       <c r="AD7" t="inlineStr">
         <is>
           <t>15 años</t>
@@ -1336,6 +1376,16 @@
       <c r="AG7" t="inlineStr">
         <is>
           <t>https://www.cooperativa.cl/noticias/pais/region-de-los-lagos/investigan-nuevo-femicidio-sujeto-aviso-a-carabineros-que-habia-matado/2019-01-14/100318.html</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>https://www.soychile.cl/Osorno/Policial/2019/10/16/620427/Sentencian-a-15-anos-de-carcel-a-autor-del-primer-femicidio-del-ano-en-Osorno.aspx</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
         </is>
       </c>
     </row>
@@ -1450,32 +1500,42 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Robo con homicidio</t>
+          <t>Homicidio calificado con alevosía</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Incendio</t>
+          <t>Incendio y sustracción de menor con resultado de homicidio</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2022-08-07</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>Tribunal de Juicio Oral en lo Penal de Osorno</t>
+          <t>Tribunal de Juicio Oral en lo Penal de Copiapó</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>20 años presidio; presidio perpetuo calificado (por homicidio de menor C.A.G)</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -1486,6 +1546,16 @@
       <c r="AG8" t="inlineStr">
         <is>
           <t>http://memorialabixxxona.blogspot.com/2019/02/transfemicidio-de-sussy-montalvan-en.html https://www.emol.com/noticias/Nacional/2019/07/12/954443/Decretan-prision-preventivo-para-unico-detenido-por-desaparicion-de-dos-jovenes-en-Copiapo.html</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>https://www.adnradio.cl/policial/2022/08/07/sentencian-a-autor-de-tres-asesinatos-en-copiapo.html</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1795,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1740,7 +1810,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>4° Tribunal de juicio Oral en lo Penal Santiago</t>
+          <t>Cuarto Tribunal de Juicio Oral en lo Penal Santiago</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -1860,17 +1930,27 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2019-02-04</t>
+          <t>2022-03-02</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Cañete</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>15 años de presidio efectivo</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -1881,6 +1961,16 @@
       <c r="AG11" t="inlineStr">
         <is>
           <t>https://www.eldesconcierto.cl/2019/02/01/femicidio-en-lebu-hombre-confeso-que-mato-con-un-cuchillo-a-su-pareja-de-23-anos/</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>https://www.poderjudicialtv.cl/programas/vocerias-jueces-y-juezas/top-de-canete-condena-a-la-pena-de-15-anos-de-presidio-a-autor-de-femicidio-en-lebu/</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -1985,22 +2075,42 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>Homicidio</t>
+          <t>Homicidio calificado con alevosía</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Incendio y sustracción de menor con resultado de homicidio</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2022-08-07</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Copiapó</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>20 años presidio; presidio perpetuo calificado (por homicidio de menor C.A.G)</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -2011,6 +2121,16 @@
       <c r="AG12" t="inlineStr">
         <is>
           <t>https://www.biobiochile.cl/noticias/nacional/region-de-atacama/2019/07/12/encuentran-restos-de-marina-cabrera-presunta-victima-de-colectivero-formalizado-en-copiapo.shtml</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/77083</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2235,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2255,7 +2375,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2460,7 +2580,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Raúl González Pardo</t>
+          <t>Raúl Edgardo González Vásquez</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2510,7 +2630,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2525,7 +2645,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>Tribunal de Juicio Oral en los Penal de Viña del Mar</t>
+          <t>Tribunal de Juicio Oral en lo Penal de Viña del Mar</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -2905,7 +3025,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2925,7 +3045,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>150-2020</t>
+          <t>150-2020 (causa reservada)</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -3051,7 +3171,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3066,7 +3186,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>1er Tribunal de Juicio Oral en lo Penal</t>
+          <t>1° Tribunal de Juicio Oral en lo Penal de Santiago</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -3087,6 +3207,11 @@
       <c r="AG20" t="inlineStr">
         <is>
           <t>https://www.t13.cl/noticia/nacional/nuevo-femicidio-mujer-muere-ser-apunalada-su-domicilio-cerro-navia</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>2023-04-30</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3316,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3316,22 +3441,32 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>Violación con homicidio</t>
+          <t>Violación</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2020-04-06</t>
+          <t>2021-03-30</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Valdivia</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>15 años de presidio</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
@@ -3342,6 +3477,16 @@
       <c r="AG22" t="inlineStr">
         <is>
           <t>https://www.eldesconcierto.cl/2019/05/02/el-dolor-de-carla-una-vida-quebrada-por-la-violacion/</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>https://www.rioenlinea.cl/condenan-a-15-anos-de-carcel-a-hombre-que-violo-a-una-joven-en-sitio-eriazo-de-los-lagos/</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3526,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>asfixiada con una bolsa; cónyuge la amarró y asfixió, indicando al ser detenido que habían viajado a Chile para completar pacto de suicidio pero que luego de matarla él se arrepintió de suicidarse</t>
+          <t>Asfixiada con una bolsa; cónyuge la amarró y asfixió, indicando al ser detenido que habían viajado a Chile para completar pacto de suicidio pero que luego de matarla él se arrepintió de suicidarse</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -3416,7 +3561,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>él reporta que éste fue su segundo intento</t>
+          <t>Él reporta que éste fue su segundo intento</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -3431,12 +3576,27 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>2023-03-18</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Formalizado</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Antofagasta</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>10 años y un día de presidio</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
@@ -3447,6 +3607,16 @@
       <c r="AG23" t="inlineStr">
         <is>
           <t>https://www.newsarchyuk.com/prosecutor-rejects-alleged-suicide-pact-of-briton-accused-of-murdering-his-partner-the-evidence-makes-us-think-that-it-was-a-femicide/ https://www.24horas.cl/regiones/antofagasta/pacto-de-amor-britanica-fallece-tras-presunto-acuerdo-para-morir-en-desierto-de-atacama-3286308 https://m.cooperativa.cl/noticias/pais/region-de-antofagasta/ingles-fue-formalizado-por-femicidio-en-antofagasta/2019-05-06/201520.html</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>https://cooperativa.cl/noticias/pais/region-de-antofagasta/hombre-condenado-por-asesinato-de-su-esposa-en-antofagasta-pasara-10/2022-03-18/132937.html</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3656,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>apuñalada; el agresor también resultó herido pero en menor medida</t>
+          <t>Apuñalada; el agresor también resultó herido pero en menor medida</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -3521,7 +3691,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>vecinos reportan constantes “peleas”</t>
+          <t>Vecinos reportan constantes “peleas”</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -3591,7 +3761,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>estrangulada, es puesta amarrada en maleta y quemada en la vía pública; cámaras de vigilancia grabaron hombre dejando maleta en la vía pública y quemándola; data de muerte es de 24 horas; cuerpo estaba desnudo; se detiene a hombre en situación de calle con quien ella compartía en caletas; el sujeto trata de aparentar alguna deficiencia mental</t>
+          <t>Estrangulada, es puesta amarrada en maleta y quemada en la vía pública; cámaras de vigilancia grabaron hombre dejando maleta en la vía pública y quemándola; data de muerte es de 24 horas; cuerpo estaba desnudo; se detiene a hombre en situación de calle con quien ella compartía en caletas; el sujeto trata de aparentar alguna deficiencia mental</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -3631,17 +3801,37 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Homicidio</t>
+          <t>Homicidio con calificado</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>2022-12-03</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Detenido</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Cuarto tribunal de Juicio Oral en lo Penal de Santiago</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>298-2022</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo calificado</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
@@ -3652,6 +3842,16 @@
       <c r="AG25" t="inlineStr">
         <is>
           <t>https://www.cooperativa.cl/noticias/pais/policial/familia-de-joven-quemada-en-una-maleta-clama-por-justicia-han-matado-a/2019-05-08/133036.html</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/83588</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3891,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>apuñalada por ex conviviente, a quien actualmente arrendaba una pieza (información Basta Contra la Violencia de Género)</t>
+          <t>Apuñalada por ex conviviente, a quien actualmente arrendaba una pieza (información Basta Contra la Violencia de Género)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -3726,17 +3926,37 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>Homicidio</t>
+          <t>Femicidio</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Detenido</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Iquique</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>202-2021</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>12 años de presidio efectivo</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
@@ -3747,6 +3967,16 @@
       <c r="AG26" t="inlineStr">
         <is>
           <t>https://www.ahoranoticias.cl/noticias/nacional/260216-mujer-encontrada-muerta-fallecida-iquique-posible-femicidio.html https://www.elinformadorchile.com/2019/05/nuevo-femicidiomujer-muere-apunalada.html?m=1</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/60471</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -3786,7 +4016,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>disparo en la cabeza; se consignó como casual hasta quede entregaron resultados de autopsia el 9 de mayo</t>
+          <t>Disparo en la cabeza; se consignó como casual hasta quede entregaron resultados de autopsia el 9 de mayo</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -3886,7 +4116,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>apuñalada por ex pareja de su hermana; la ex pareja del agresor y el padre de ésta se encuentran en riesgo vital</t>
+          <t>Apuñalada por ex pareja de su hermana; la ex pareja del agresor y el padre de ésta se encuentran en riesgo vital</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -3901,7 +4131,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
+          <t>Yonathan Patricio Vega Vega</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3941,12 +4171,27 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>2021-08-17</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Prófugo</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Valdivia</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo calificado</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
@@ -3957,6 +4202,16 @@
       <c r="AG28" t="inlineStr">
         <is>
           <t>https://www.t13.cl/noticia/nacional/vecinos-relatan-como-hombre-atacado-ex-pareja-su-hija-logro-pedir-ayuda</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>http://www.fiscaliadechile.cl/Fiscalia/sala_prensa/noticias_regional_det.do?id=20001</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -3996,7 +4251,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>apuñalada por ex pareja de su hija; la ex pareja del agresor y el padre de ésta se encuentran en riesgo vital</t>
+          <t>Apuñalada por ex pareja de su hija; la ex pareja del agresor y el padre de ésta se encuentran en riesgo vital</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -4011,7 +4266,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
+          <t>Yonathan Patricio Vega Vega</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -4051,17 +4306,42 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>2021-08-17</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Prófugo</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Valdivia</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo calificado</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
           <t>https://www.cooperativa.cl/noticias/pais/region-de-los-rios/hombre-apunalo-a-toda-la-familia-de-su-ex-pareja-dos-muertos/2019-05-14/083139.html</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>http://www.fiscaliadechile.cl/Fiscalia/sala_prensa/noticias_regional_det.do?id=20001</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4396,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Samuel Mauricio Garnica</t>
+          <t>Samuel Mauricio Garnica Llefi</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -4151,12 +4431,27 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Detenido</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Osorno</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>17 años</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
@@ -4167,6 +4462,16 @@
       <c r="AG30" t="inlineStr">
         <is>
           <t>https://www.biobiochile.cl/noticias/nacional/region-de-los-lagos/2019/05/15/femicidio-numero-19-victima-denuncio-pero-no-se-reporto-al-ministerio-publico.shtml https://www.soychile.cl/Osorno/Policial/2019/05/30/598074/Femicidio-en-Puaucho-Carabineros-habria-priorizado-relevo-de-personal-en-lugar-del-llamado-de-la-victima.aspx</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>https://www.emol.com/noticias/Nacional/2020/06/28/990404/Femicidio-condenado-17-anos-carcel.html</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -4576,12 +4881,27 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Detenido</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>20 años de presidio en su grado máximo</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
@@ -4592,6 +4912,16 @@
       <c r="AG34" t="inlineStr">
         <is>
           <t>https://www.cooperativa.cl/noticias/pais/region-de-los-lagos/vuelco-sujeto-es-acusado-de-femicidio-luego-de-lanzar-en-auto-a-mujer/2019-06-21/215543.html</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>https://www.radiosago.cl/20-anos-de-carcel-debera-cumplir-sujeto-que-asesino-a-su-esposa-en-el-rio-maullin/</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -4696,12 +5026,27 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>2022-08-07</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Formalizado</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Copiapó</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo calificado</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
@@ -4712,6 +5057,16 @@
       <c r="AG35" t="inlineStr">
         <is>
           <t>https://www.ahoranoticias.cl/noticias/nacional/267924-joven-desaparecida-en-copiapo-pdi-diligencias-pericias-tres-desaparecidas.html</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>https://www.adnradio.cl/policial/2022/08/07/sentencian-a-autor-de-tres-asesinatos-en-copiapo.html</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -4796,17 +5151,32 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>2021-09-28</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Condenado</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>Tribunal Oral en lo Penal de Antofagasta</t>
+          <t>Tribunal de Juicio Oral en lo Penal de Antofagasta</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>268-2021</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>14 años de presidio efectivo</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
@@ -4817,6 +5187,11 @@
       <c r="AG36" t="inlineStr">
         <is>
           <t>https://www.timeline.cl/2019/06/antofagasta-mato-a-su-pareja-con-el-cordon-del-poleron/</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>https://www.elnortero.cl/noticia/sociedad/tribunal-descarto-suicidio-condenan-sujeto-por-femicidio-de-joven-en-antofagasta-vi</t>
         </is>
       </c>
     </row>
@@ -4906,12 +5281,27 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>2021-10-04</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Detenido</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de San Fernando</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>20 años de presidio perpetuo simple</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
@@ -4922,6 +5312,16 @@
       <c r="AG37" t="inlineStr">
         <is>
           <t>https://www.biobiochile.cl/noticias/nacional/region-de-ohiggins/2019/06/27/tenia-53-punaladas-expareja-de-la-victima-de-femicidio-en-chimbarongo-queda-en-prision-preventiva.shtml</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>https://horadenoticias.cl/policial/femicida-de-chimbarongo-fue-condenado-a-20-anos-de-carcel/</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -5106,12 +5506,27 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>2021-03-21</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>confeso</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Valdivia</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>13 años de presidio</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
@@ -5122,6 +5537,16 @@
       <c r="AG39" t="inlineStr">
         <is>
           <t>http://www.lanco.cl/index.php/en-horas-de-la-madrugada-quedo-al-descubierto-un-femicidio-en-conaripe-comuna-de-panguipulli/</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>https://www.diariolaunion.cl/noticia/actualidad/2021/03/sentencian-a-13-anos-de-presidio-a-autor-de-femicidio-consumado-en-panguipulli</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -5216,17 +5641,27 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>2021-03-04</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Formalizado</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Calama</t>
+          <t>Tribunal de Juicio Oral en lo Penal de Calama</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo simple</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
@@ -5237,6 +5672,16 @@
       <c r="AG40" t="inlineStr">
         <is>
           <t>https://www.biobiochile.cl/noticias/nacional/region-de-antofagasta/2019/07/23/mujer-de-28-anos-muere-apunalada-en-calama-investigan-femicidio.shtml</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>https://www.elnortero.cl/noticia/sociedad/calama-presidio-perpetuo-para-autor-de-femicidio-en-contra-de-la-madre-de-su-hijo</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5961,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Wladimir Rojas Castillo</t>
+          <t>Vladimir Rojas Castillo</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -5541,17 +5986,27 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>Femicidio</t>
+          <t>Homicidio simple</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Detenido</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Ovalle</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>12 años y seis meses de presidio</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
@@ -5562,6 +6017,16 @@
       <c r="AG43" t="inlineStr">
         <is>
           <t>http://www.elobservatodo.cl/noticia/sociedad/nuevo-femicidio-en-la-region-mujer-muere-por-escopetazo-de-su-pareja-en-pleno-rostr</t>
+        </is>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>https://cooperativa.cl/noticias/pais/region-de-coquimbo/hombre-que-mato-de-un-escopetazo-en-el-rostro-a-su-pareja-pasara-12-anos/2020-02-26/171232.html</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -5756,12 +6221,22 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>2020-11-04</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Detenido</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>20 años de presidio</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
@@ -5772,6 +6247,16 @@
       <c r="AG45" t="inlineStr">
         <is>
           <t>https://90minutos.co/capturan-dominicano-asesino-joven-colombiana-chile-06-09-2019/ https://m.cooperativa.cl/noticias/pais/policial/femicidio/indagan-posible-femicidio-mujer-fue-hallada-muerta-en-un-departamento/2019-08-16/235949.html</t>
+        </is>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>http://www.fiscaliadechile.cl/Fiscalia/fiscalias_metroCentroNorte/noticias_det.do?id=21492</t>
+        </is>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -5861,17 +6346,32 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>Homicidio</t>
+          <t>Homicidio calificado</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>2020-10-14</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Detenido</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Valdivia</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>8 años de internación en régimen cerrado en centro del Sename</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
@@ -5882,6 +6382,16 @@
       <c r="AG46" t="inlineStr">
         <is>
           <t>https://www.elmostrador.cl/braga/2019/08/19/femicidio-en-valdivia-la-victima-de-17-anos-murio-apunalada-por-su-ex-pololo/</t>
+        </is>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>https://elpinguino.com/noticia/2020/10/14/sentencian-a-8-anos-de-internacion-en-centro-de-sename-a-joven-que-asesino-a-expolola-en-via-publica-</t>
+        </is>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -5966,12 +6476,22 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Prófugo</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Septimo Tribunal de Juicio Oral en lo Penal de Santiago</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo simple</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
@@ -5982,6 +6502,16 @@
       <c r="AG47" t="inlineStr">
         <is>
           <t>https://www.latercera.com/nacional/noticia/encuentran-muerta-mujer-63-anos-casa-la-florida-e-investigan-parricidio/790510/</t>
+        </is>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-metropolitana/2020/11/17/condenan-a-presidio-perpetuo-simple-a-autor-de-parricidio-en-la-florida-mato-a-golpes-a-su-madre.shtml</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6556,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>apuñalada; cuerpo fue encontrado tras 3 semanas desaparecida; data de muerte sería de 2 semanas; vecinos indican que pareja entraba y salía de la vivienda y amigas de la víctima indican que hombre mentía sobre paradero de la mujer, durante dischos días; se encuentra prófugo</t>
+          <t>apuñalada; cuerpo fue encontrado tras 3 semanas desaparecida; data de muerte sería de 2 semanas; vecinos indican que pareja entraba y salía de la vivienda y amigas de la víctima indican que hombre mentía sobre paradero de la mujer, durante dichos días; se encuentra prófugo</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -6121,7 +6651,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>apuñalada por conviviente, se encontraba embarazade de 5 meses</t>
+          <t>apuñalada por conviviente, se encontraba embaraza de de 5 meses</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -6171,12 +6701,37 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>2021-09-21</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Detenido</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Segundo Tribunal de Juicio Oral en lo Penal de Santiago</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>184-2021</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>15 años de presidio</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>5 años de presidio</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
@@ -6187,6 +6742,21 @@
       <c r="AG49" t="inlineStr">
         <is>
           <t>https://www.biobiochile.cl/noticias/nacional/region-metropolitana/2019/09/08/detienen-a-hombre-acusado-de-asesinar-a-su-pareja-en-renca-estaba-embarazada.shtml</t>
+        </is>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>https://www.redohiggins.com/policial/20-anos-de-carcel-para-imputado-por-femicidio-de-su-conviviente-embarazada</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;ved=2ahUKEwiU5sL3nO6AAxX7CrkGHZ--A9kQFnoECBsQAQ&amp;url=https%3A%2F%2Fwww.pjud.cl%2Fprensa-y-comunicaciones%2FgetRulingNew%2F8169&amp;usg=AOvVaw11Wy1XAEboAX4vCMlna6ba&amp;opi=89978449</t>
+        </is>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6801,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>apuñalada por ex conviviente, quien intentó suicidarse y se encuentra en riesgo vital; Fahime intentó pedir ayuda a su actual pareja, quien no alcanzó a llegar a su domicilio</t>
+          <t>Apuñalada por ex conviviente, quien intentó suicidarse y se encuentra en riesgo vital; Fahime intentó pedir ayuda a su actual pareja, quien no alcanzó a llegar a su domicilio</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -6286,12 +6856,32 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Detenido</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Arica</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>305-2022</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo simple</t>
         </is>
       </c>
       <c r="AF50" t="inlineStr">
@@ -6302,6 +6892,16 @@
       <c r="AG50" t="inlineStr">
         <is>
           <t>https://www.aricaldia.cl/femicidio-sujeto-apunalo-a-su-ex-pareja-y-se-autoinferio-heridas-que-lo-mantienen-en-riesgo-vital/</t>
+        </is>
+      </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/78469</t>
+        </is>
+      </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -6394,14 +6994,39 @@
           <t>Femicidio</t>
         </is>
       </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Homicidio frustrado; porte ilegal de arma de fuego; desacato; amenazas</t>
+        </is>
+      </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>06-21-2022</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Detenido</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Rancagua</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>18 años de carcel</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>5 años; 3 años y un día; 541 días; 61 días</t>
         </is>
       </c>
       <c r="AF51" t="inlineStr">
@@ -6412,6 +7037,16 @@
       <c r="AG51" t="inlineStr">
         <is>
           <t>https://www.elrancaguino.cl/2019/09/23/hombre-mato-con-cuatro-tiros-a-su-ex-pareja/</t>
+        </is>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>https://www.diarioviregion.cl/index.php/policial/23310-condenan-a-sujeto-que-asesino-a-ex-pareja-en-coltauco</t>
+        </is>
+      </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -6456,7 +7091,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>es golpeada y enterrada en sector rural, luego pareja preseta denuncia por desaparición. A los 6 días confiesa el crimen</t>
+          <t>Es golpeada y enterrada en sector rural, luego pareja preseta denuncia por desaparición. A los 6 días confiesa el crimen</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -6501,12 +7136,32 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Detenido</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Cañete</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>46-2021</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo simple</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
@@ -6517,6 +7172,21 @@
       <c r="AG52" t="inlineStr">
         <is>
           <t>https://www.biobiochile.cl/noticias/nacional/region-del-bio-bio/2019/10/03/hallan-muerta-a-joven-madre-desaparecida-hace-casi-una-semana-en-canete-fue-asesinada.shtml</t>
+        </is>
+      </c>
+      <c r="AH52" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-del-bio-bio/2022/04/30/femicidio-en-los-alamos-condenan-a-cadena-perpetua-al-asesino-de-constanza-chandia.shtml</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;ved=2ahUKEwiE9Nyuoe6AAxXTqpUCHbnuAc4QFnoECBgQAQ&amp;url=https%3A%2F%2Fwww.pjud.cl%2Fprensa-y-comunicaciones%2FgetRulingNew%2F15849&amp;usg=AOvVaw0SIvZr62ueLwWxRc_p_Shf&amp;opi=89978449</t>
+        </is>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -6541,7 +7211,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ana Elisa Miranda</t>
+          <t>Ana Elisa Millan Antileo</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6616,12 +7286,32 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Detenido</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>29-2022</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>15 años y un día de presidio</t>
         </is>
       </c>
       <c r="AF53" t="inlineStr">
@@ -6632,6 +7322,16 @@
       <c r="AG53" t="inlineStr">
         <is>
           <t>https://www.soychile.cl/Puerto-Montt/Policial/2019/10/04/618488/Imputado-por-femicidio-en-Puerto-Montt-quedo-en-prision-preventiva.aspx</t>
+        </is>
+      </c>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/74941</t>
+        </is>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -6671,7 +7371,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>desaparecida desde el 29 de agosto; fue encontrada descuartizada en río Elqui, se confirma violencia sexual. Familia critica trabajo investigativo de la policía para encontrarla, realizan manifestaciones exigendo justicia</t>
+          <t>Desaparecida desde el 29 de agosto; fue encontrada descuartizada en río Elqui, se confirma violencia sexual. Familia critica trabajo investigativo de la policía para encontrarla, realizan manifestaciones exigendo justicia</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -6751,7 +7451,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>dos disparos percutados por su pareja en restaurant de propiedad de éste</t>
+          <t>Dos disparos percutados por su pareja en restaurant de propiedad de éste</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -6804,24 +7504,34 @@
           <t>Femicidio</t>
         </is>
       </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Prohibición porte de armas de fuego</t>
+        </is>
+      </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>confeso</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>4° Tribunal de juicio oral en lo penal Santiago</t>
+          <t>Cuarto Tribunal de Juicio Oral en lo Penal de Santiago</t>
         </is>
       </c>
       <c r="AD55" t="inlineStr">
         <is>
-          <t>17 años de pena efectiva, prohibición porte de armas de fuego</t>
+          <t>17 años de pena efectiva</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>2 años</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
@@ -6832,6 +7542,16 @@
       <c r="AG55" t="inlineStr">
         <is>
           <t>https://www.t13.cl/noticia/nacional/dueno-meson-kike-asesino-su-pareja-dos-disparos https://www.lared.cl/2019/programas/hola-chile/dueno-de-conocido-local-confeso-femicidio-asesino-a-su-pareja</t>
+        </is>
+      </c>
+      <c r="AH55" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-metropolitana/2023/01/30/condenan-a-dueno-de-restaurante-a-17-anos-de-carcel-por-femicidio-de-su-pareja-en-local-en-santiago.shtml</t>
+        </is>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -6971,7 +7691,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>apuñalada por esposo, quien luego se entrega a la policía</t>
+          <t>Apuñalada por esposo, quien luego se entrega a la policía</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -6986,7 +7706,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>D.J. (MEDIOS PROTEGEN SU IDENTIDAD)</t>
+          <t>Dieusibon Jean</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -7021,12 +7741,27 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>confeso</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de San Antonio</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>20 años de presidio mayor en su grado máximo</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
@@ -7037,6 +7772,16 @@
       <c r="AG57" t="inlineStr">
         <is>
           <t>http://elproa.cl/web/detallenoticia.asp?id=29190</t>
+        </is>
+      </c>
+      <c r="AH57" t="inlineStr">
+        <is>
+          <t>https://www.latribuna.cl/policial/2021/01/19/hombre-que-mato-a-su-pareja-mientras-dormia-fue-sentenciado-a-20-anos-de-carcel.html</t>
+        </is>
+      </c>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7821,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>disparo en la cabeza; ex conviviente, con quien se encontraba separada hace 2 años, fue a buscarla junto a su madre, sacó a los hijos del lugar y volvió a dispararle; inmediatamete se suicidó</t>
+          <t>Disparo en la cabeza; ex conviviente, con quien se encontraba separada hace 2 años, fue a buscarla junto a su madre, sacó a los hijos del lugar y volvió a dispararle; inmediatamete se suicidó</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -7181,7 +7926,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>dos cuchilladas en el tórax; en el lugar se encontraban los dos hijos de la víctima, vecinos alertaron a policía; sujeto es detenido y niños en custodia de arrendador del inmueble por el momento</t>
+          <t>Dos cuchilladas en el tórax; en el lugar se encontraban los dos hijos de la víctima, vecinos alertaron a policía; sujeto es detenido y niños en custodia de arrendador del inmueble por el momento</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -7281,7 +8026,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>apuñalada por su ex pareja en la vía pública; esfuerzos por estabilizarla no dieron resultados</t>
+          <t>Apuñalada por su ex pareja en la vía pública; esfuerzos por estabilizarla no dieron resultados</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -7331,12 +8076,32 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>confeso</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Castro</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>52-2021</t>
+        </is>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo simple</t>
         </is>
       </c>
       <c r="AF60" t="inlineStr">
@@ -7347,6 +8112,16 @@
       <c r="AG60" t="inlineStr">
         <is>
           <t>https://www.biobiochile.cl/noticias/nacional/region-de-los-lagos/2019/12/03/amplian-detencion-de-hombre-sindicado-como-autor-de-femicidio-en-quellon.shtml</t>
+        </is>
+      </c>
+      <c r="AH60" t="inlineStr">
+        <is>
+          <t>https://laopiniondechiloe.cl/quellon-dictan-presidio-perpetuo-simple-por-femicidio-de-joven-en-plena-via-publica/</t>
+        </is>
+      </c>
+      <c r="AJ60" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -7471,7 +8246,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Maipú</t>
+          <t>Padre Hurtado</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -7536,17 +8311,32 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2021-11-24</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Detenido</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Quinto Tribunal de Juicio Oral en lo Penal de Santiago</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>105-2021</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo simple</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
@@ -7557,6 +8347,21 @@
       <c r="AG62" t="inlineStr">
         <is>
           <t>https://www.24horas.cl/nacional/misteriosa-desaparicion-en-maipu-video-registra-los-ultimos-tres-momentos-en-que-se-vio-a-isabel-margarita-3738027</t>
+        </is>
+      </c>
+      <c r="AH62" t="inlineStr">
+        <is>
+          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/65371</t>
+        </is>
+      </c>
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;ved=2ahUKEwjT4Nizp-6AAxWzI7kGHavxC-YQFnoECA4QAQ&amp;url=https%3A%2F%2Fwww.pjud.cl%2Fprensa-y-comunicaciones%2FgetRulingNew%2F8448&amp;usg=AOvVaw3w5mqrKhP8hcC9ad8Qd-41&amp;opi=89978449</t>
+        </is>
+      </c>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -7616,7 +8421,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Edgar Alejandro Layseca Urra, Diego Sebastián Bustamante Bustos, Javier Antonio Bustamante Bustos</t>
+          <t>Edgar Alejandro Layseca Urra; Javier Antonio Bustamante Bustos; Diego Sebastián Bustamante Bustos</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -7626,7 +8431,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si; no; no</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -7636,27 +8441,37 @@
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>Robo con homicidio</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>Violación</t>
+          <t>Deceso; violación con homicidio y hurto simple; encubridor de hurto simple</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>Preparación de juicio oral</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2021-01-05</t>
+          <t>2021-11-08</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Deceso; privado de libertad; privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de San Bernardo</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>87-2021</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>Deceso; Presidio perpetuo calificado; 40 días de prisión</t>
         </is>
       </c>
       <c r="AF63" t="inlineStr">
@@ -7667,6 +8482,16 @@
       <c r="AG63" t="inlineStr">
         <is>
           <t>https://www.elinformadorchile.cl/2019/12/15/encuentran-fallecida-a-xaviera-rojas-estaba-desaparecida-desde-ayer/</t>
+        </is>
+      </c>
+      <c r="AH63" t="inlineStr">
+        <is>
+          <t>https://www.adnradio.cl/noticias/nacional/encuentran-cuerpo-de-joven-artista-desaparecida-en-san-bernardo/20191216/nota/3991548.aspx</t>
+        </is>
+      </c>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -7766,22 +8591,32 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>Femicidio; homicidio</t>
+          <t>Femicidio</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2021-11-15</t>
+          <t>2022-09-03</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Detenido</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Castro</t>
+        </is>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>15 años y un día de presidio</t>
         </is>
       </c>
       <c r="AF64" t="inlineStr">
@@ -7792,6 +8627,16 @@
       <c r="AG64" t="inlineStr">
         <is>
           <t>http://laopiniondechiloe.cl/femicidio-en-isla-caguach-quinchao-detienen-a-2-personas-entre-ellos-funcionario-de-saesa/</t>
+        </is>
+      </c>
+      <c r="AH64" t="inlineStr">
+        <is>
+          <t>https://www.diariodeosorno.cl/noticia/actualidad/2022/02/tribunal-condena-a-15-anos-y-un-dia-de-carcel-a-autor-de-femicidio</t>
+        </is>
+      </c>
+      <c r="AJ64" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -7879,19 +8724,39 @@
           <t>Femicidio</t>
         </is>
       </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Desacato y daños</t>
+        </is>
+      </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2019-12-28</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Detenido</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Punta Arenas</t>
+        </is>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>Absuelto de femicidio</t>
+        </is>
+      </c>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>5 años y 300 días de presidio</t>
         </is>
       </c>
       <c r="AF65" t="inlineStr">
@@ -7902,6 +8767,16 @@
       <c r="AG65" t="inlineStr">
         <is>
           <t>https://elpinguino.com/noticia/2019/12/28/hallaron-cuerpo-sin-vida-de-mujer-en-el-estadio-fiscal- https://www.cooperativa.cl/noticias/pais/region-de-magallanes/investigan-presunto-femicidio-en-punta-arenas-cuerpo-fue-hallado-en/2019-12-28/123326.html</t>
+        </is>
+      </c>
+      <c r="AH65" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-de-magallanes/2022/11/22/caso-glenda-condenan-a-expareja-por-violar-orden-de-alejamiento-pero-no-se-pudo-probar-femicidio.shtml</t>
+        </is>
+      </c>
+      <c r="AJ65" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -7984,6 +8859,26 @@
           <t>hay 4 denuncias más de violación en contra del imputado</t>
         </is>
       </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>Concluida</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>2023-07-28</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>17 años</t>
+        </is>
+      </c>
       <c r="AF66" t="inlineStr">
         <is>
           <t>https://www.elmostrador.cl/braga/2019/10/16/conmocion-en-temuco-joven-se-suicida-tras-ser-victima-de-violacion/</t>
@@ -7992,6 +8887,11 @@
       <c r="AG66" t="inlineStr">
         <is>
           <t>https://www.eldinamo.cl/nacional/2019/10/16/antonia-barra-violacion-suicidio-pucon-temuco/</t>
+        </is>
+      </c>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
